--- a/data/clinics.xlsx
+++ b/data/clinics.xlsx
@@ -1,33 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9ba4994e95445f0b/The Code Institute/My Visual Studio Projects/milestone-2-project/my_project/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9ba4994e95445f0b/The Code Institute/My Visual Studio Projects/milestone-2-project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="9" documentId="0473DD55B2028695656D04936637DB4402589DB1" xr6:coauthVersionLast="23" xr6:coauthVersionMax="23" xr10:uidLastSave="{7B4AAC18-211F-4C8F-8D5B-5F91D3A7D2A7}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="15375" windowHeight="7140"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="clinics" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">clinics!$A$1:$Z$62</definedName>
+  </definedNames>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="128">
+  <si>
+    <t>id</t>
+  </si>
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>latitude</t>
-  </si>
-  <si>
-    <t>longitude</t>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>staff/doctors</t>
+  </si>
+  <si>
+    <t>staff/nurses</t>
+  </si>
+  <si>
+    <t>staff/consultants</t>
   </si>
   <si>
     <t>department/0</t>
@@ -66,12 +82,21 @@
     <t>department/11</t>
   </si>
   <si>
-    <t>services</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
+    <t>aveConsultTime</t>
+  </si>
+  <si>
+    <t>aveWaitingTime</t>
+  </si>
+  <si>
+    <t>urgentAppointments</t>
+  </si>
+  <si>
+    <t>patientsPerDay</t>
+  </si>
+  <si>
     <t>Generation Health Medical Clinic</t>
   </si>
   <si>
@@ -111,7 +136,7 @@
     <t>Dermatology</t>
   </si>
   <si>
-    <t>Clinic</t>
+    <t>Medical Clinic</t>
   </si>
   <si>
     <t>The Gables Medical Centre</t>
@@ -159,6 +184,9 @@
     <t>Vascular Laboratory</t>
   </si>
   <si>
+    <t>Walk-In Blood Service</t>
+  </si>
+  <si>
     <t>Hospital</t>
   </si>
   <si>
@@ -177,6 +205,9 @@
     <t>Talbot St Medical Centre</t>
   </si>
   <si>
+    <t>Blood Test</t>
+  </si>
+  <si>
     <t>Custom House Square Medical Centre</t>
   </si>
   <si>
@@ -219,19 +250,169 @@
     <t>Cryotherapy</t>
   </si>
   <si>
-    <t>staff/doctors</t>
-  </si>
-  <si>
-    <t>staff/nurses</t>
-  </si>
-  <si>
-    <t>staff/consultants</t>
+    <t>1 Beaufield Avenue</t>
+  </si>
+  <si>
+    <t>General Practice</t>
+  </si>
+  <si>
+    <t>278 River Forest Estate</t>
+  </si>
+  <si>
+    <t>2 The Bungalow</t>
+  </si>
+  <si>
+    <t>3 Sycamore House</t>
+  </si>
+  <si>
+    <t>67 Lakelands</t>
+  </si>
+  <si>
+    <t>Abbeylands Medical</t>
+  </si>
+  <si>
+    <t>Athy Lodge</t>
+  </si>
+  <si>
+    <t>Ballycane Surgery</t>
+  </si>
+  <si>
+    <t>Barrowview Medical</t>
+  </si>
+  <si>
+    <t>Brownstown Surgery</t>
+  </si>
+  <si>
+    <t>Carrig</t>
+  </si>
+  <si>
+    <t>Celbridge Medical Centre</t>
+  </si>
+  <si>
+    <t>Centric Health Celbridge</t>
+  </si>
+  <si>
+    <t>Derrinturn Health Centre</t>
+  </si>
+  <si>
+    <t>Fay Family Medical Practice</t>
+  </si>
+  <si>
+    <t>Gleneaston Medical Centre</t>
+  </si>
+  <si>
+    <t>Hse St Mary's</t>
+  </si>
+  <si>
+    <t>Kilcock Medical Centre</t>
+  </si>
+  <si>
+    <t>Kilcullen Family Practice</t>
+  </si>
+  <si>
+    <t>Kildare Medical Centre</t>
+  </si>
+  <si>
+    <t>Kingsbry Medical Centre</t>
+  </si>
+  <si>
+    <t>Larkfield Surgery</t>
+  </si>
+  <si>
+    <t>Medical Centre</t>
+  </si>
+  <si>
+    <t>Monasterevin Medical Centre</t>
+  </si>
+  <si>
+    <t>Moorefield Medical Centre</t>
+  </si>
+  <si>
+    <t>Naas General Practice Centre</t>
+  </si>
+  <si>
+    <t>Newbridge Family Practice</t>
+  </si>
+  <si>
+    <t>Newbridge Medical Centre</t>
+  </si>
+  <si>
+    <t>Park Lodge Medical Centre</t>
+  </si>
+  <si>
+    <t>Primrose Gate Medical Centre</t>
+  </si>
+  <si>
+    <t>Rathangan Medical Centre</t>
+  </si>
+  <si>
+    <t>River Forest Med&amp;sports Med</t>
+  </si>
+  <si>
+    <t>Ryevale Medical Practice</t>
+  </si>
+  <si>
+    <t>The Bridge Medical Centre</t>
+  </si>
+  <si>
+    <t>The Ideal Centre</t>
+  </si>
+  <si>
+    <t>The Medical Centre</t>
+  </si>
+  <si>
+    <t>The Oaktree Clinic</t>
+  </si>
+  <si>
+    <t>The Park Clinic</t>
+  </si>
+  <si>
+    <t>The Park Medical Centre</t>
+  </si>
+  <si>
+    <t>The Surgery</t>
+  </si>
+  <si>
+    <t>The Woods Clinic</t>
+  </si>
+  <si>
+    <t>Watermills Family Practice</t>
+  </si>
+  <si>
+    <t>Whitethorn Clinic</t>
+  </si>
+  <si>
+    <t>Naas General Hospital</t>
+  </si>
+  <si>
+    <t>National Childrens Hospital</t>
+  </si>
+  <si>
+    <t>Rotunda Hospital</t>
+  </si>
+  <si>
+    <t>Coombe Womens Hospital</t>
+  </si>
+  <si>
+    <t>Peamount Hospital</t>
+  </si>
+  <si>
+    <t>Connolly Hospital</t>
+  </si>
+  <si>
+    <t>St. James's Hospital</t>
+  </si>
+  <si>
+    <t>routineAppointments</t>
+  </si>
+  <si>
+    <t>staff/counsellors</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -294,7 +475,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -687,30 +868,31 @@
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -786,7 +968,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -798,7 +980,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -845,6 +1027,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -880,6 +1079,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1031,104 +1247,129 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.73046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.06640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.06640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.73046875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="19.46484375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.59765625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="28.796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="11.796875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.86328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.265625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.86328125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="H1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="M1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="P1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="S1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="T1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="U1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+      <c r="V1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C2">
         <v>53.374805000000002</v>
@@ -1145,55 +1386,71 @@
       <c r="G2">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
-        <v>18</v>
+      <c r="H2">
+        <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="L2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="M2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V2">
+        <v>10</v>
+      </c>
+      <c r="W2">
         <v>23</v>
       </c>
-      <c r="N2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>27</v>
-      </c>
-      <c r="R2" t="s">
-        <v>28</v>
-      </c>
-      <c r="S2" t="s">
-        <v>29</v>
-      </c>
-      <c r="T2">
-        <v>12</v>
-      </c>
-      <c r="U2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="X2" s="1">
+        <v>43.65</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>23.85</v>
+      </c>
+      <c r="Z2" s="1">
+        <f>SUM(X2+Y2)</f>
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C3">
         <v>53.292195</v>
@@ -1202,63 +1459,79 @@
         <v>-6.2678669999999999</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="K3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="L3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="M3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="O3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P3" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="Q3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="R3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="S3" t="s">
-        <v>29</v>
-      </c>
-      <c r="T3">
-        <v>12</v>
+        <v>35</v>
+      </c>
+      <c r="T3" t="s">
+        <v>36</v>
       </c>
       <c r="U3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
+        <v>40</v>
+      </c>
+      <c r="V3">
+        <v>17</v>
+      </c>
+      <c r="W3">
+        <v>34</v>
+      </c>
+      <c r="X3" s="1">
+        <v>29.1</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>15.9</v>
+      </c>
+      <c r="Z3" s="1">
+        <f t="shared" ref="Z3:Z62" si="0">SUM(X3+Y3)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C4">
         <v>53.344039000000002</v>
@@ -1267,7 +1540,7 @@
         <v>-6.2651858999999996</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -1275,52 +1548,68 @@
       <c r="G4">
         <v>5</v>
       </c>
-      <c r="H4" t="s">
-        <v>18</v>
+      <c r="H4">
+        <v>2</v>
       </c>
       <c r="I4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q4" t="s">
         <v>35</v>
       </c>
-      <c r="J4" t="s">
+      <c r="R4" t="s">
+        <v>43</v>
+      </c>
+      <c r="S4" t="s">
+        <v>36</v>
+      </c>
+      <c r="U4" t="s">
+        <v>40</v>
+      </c>
+      <c r="V4">
+        <v>20</v>
+      </c>
+      <c r="W4">
         <v>22</v>
       </c>
-      <c r="K4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O4" t="s">
-        <v>27</v>
-      </c>
-      <c r="P4" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>36</v>
-      </c>
-      <c r="R4" t="s">
-        <v>29</v>
-      </c>
-      <c r="T4">
-        <v>11</v>
-      </c>
-      <c r="U4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="X4" s="1">
+        <v>84.39</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>46.11</v>
+      </c>
+      <c r="Z4" s="1">
+        <f t="shared" si="0"/>
+        <v>130.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C5">
         <v>53.289475899999999</v>
@@ -1329,54 +1618,70 @@
         <v>-6.7008700000000001</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5" t="s">
-        <v>38</v>
+        <v>13</v>
+      </c>
+      <c r="H5">
+        <v>14</v>
       </c>
       <c r="I5" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="J5" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="K5" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="L5" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="M5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="N5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="O5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="P5" t="s">
-        <v>36</v>
-      </c>
-      <c r="T5">
-        <v>10</v>
+        <v>52</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>53</v>
       </c>
       <c r="U5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
+        <v>54</v>
+      </c>
+      <c r="V5">
+        <v>18</v>
+      </c>
+      <c r="W5">
+        <v>28</v>
+      </c>
+      <c r="X5" s="1">
+        <v>83.42</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>45.58</v>
+      </c>
+      <c r="Z5" s="1">
+        <f t="shared" si="0"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C6">
         <v>53.340668600000001</v>
@@ -1393,55 +1698,71 @@
       <c r="G6">
         <v>10</v>
       </c>
-      <c r="H6" t="s">
-        <v>48</v>
+      <c r="H6">
+        <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="J6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="K6" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="L6" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="M6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N6" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="O6" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="P6" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="Q6" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="R6" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="S6" t="s">
-        <v>50</v>
-      </c>
-      <c r="T6">
-        <v>12</v>
+        <v>35</v>
+      </c>
+      <c r="T6" t="s">
+        <v>58</v>
       </c>
       <c r="U6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
+        <v>40</v>
+      </c>
+      <c r="V6">
+        <v>16</v>
+      </c>
+      <c r="W6">
+        <v>30</v>
+      </c>
+      <c r="X6" s="1">
+        <v>43.65</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>23.85</v>
+      </c>
+      <c r="Z6" s="1">
+        <f t="shared" si="0"/>
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C7">
         <v>53.350436199999997</v>
@@ -1458,55 +1779,71 @@
       <c r="G7">
         <v>3</v>
       </c>
-      <c r="H7" t="s">
-        <v>48</v>
+      <c r="H7">
+        <v>5</v>
       </c>
       <c r="I7" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="J7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="K7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="L7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="M7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="O7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="P7" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="Q7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="R7" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="S7" t="s">
-        <v>49</v>
-      </c>
-      <c r="T7">
-        <v>12</v>
+        <v>35</v>
+      </c>
+      <c r="T7" t="s">
+        <v>57</v>
       </c>
       <c r="U7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
+        <v>40</v>
+      </c>
+      <c r="V7">
+        <v>15</v>
+      </c>
+      <c r="W7">
+        <v>35</v>
+      </c>
+      <c r="X7" s="1">
+        <v>53.35</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>29.15</v>
+      </c>
+      <c r="Z7" s="1">
+        <f t="shared" si="0"/>
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C8">
         <v>53.349444699999999</v>
@@ -1523,55 +1860,71 @@
       <c r="G8">
         <v>8</v>
       </c>
-      <c r="H8" t="s">
-        <v>53</v>
+      <c r="H8">
+        <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="J8" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="K8" t="s">
+        <v>64</v>
+      </c>
+      <c r="L8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" t="s">
+        <v>65</v>
+      </c>
+      <c r="P8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>33</v>
+      </c>
+      <c r="R8" t="s">
+        <v>34</v>
+      </c>
+      <c r="S8" t="s">
         <v>35</v>
       </c>
-      <c r="L8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N8" t="s">
-        <v>56</v>
-      </c>
-      <c r="O8" t="s">
-        <v>25</v>
-      </c>
-      <c r="P8" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>27</v>
-      </c>
-      <c r="R8" t="s">
-        <v>28</v>
-      </c>
-      <c r="S8" t="s">
-        <v>57</v>
-      </c>
-      <c r="T8">
+      <c r="T8" t="s">
+        <v>66</v>
+      </c>
+      <c r="U8" t="s">
+        <v>40</v>
+      </c>
+      <c r="V8">
         <v>12</v>
       </c>
-      <c r="U8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="W8">
+        <v>24</v>
+      </c>
+      <c r="X8" s="1">
+        <v>58.2</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>31.8</v>
+      </c>
+      <c r="Z8" s="1">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C9">
         <v>53.349634000000002</v>
@@ -1588,40 +1941,56 @@
       <c r="G9">
         <v>2</v>
       </c>
-      <c r="H9" t="s">
-        <v>59</v>
+      <c r="H9">
+        <v>4</v>
       </c>
       <c r="I9" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="J9" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="K9" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="L9" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="M9" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="N9" t="s">
-        <v>43</v>
-      </c>
-      <c r="T9">
-        <v>7</v>
+        <v>71</v>
+      </c>
+      <c r="O9" t="s">
+        <v>50</v>
       </c>
       <c r="U9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
+        <v>40</v>
+      </c>
+      <c r="V9">
+        <v>14</v>
+      </c>
+      <c r="W9">
+        <v>28</v>
+      </c>
+      <c r="X9" s="1">
+        <v>73.72</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>40.28</v>
+      </c>
+      <c r="Z9" s="1">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C10">
         <v>53.326311199999999</v>
@@ -1638,22 +2007,38 @@
       <c r="G10">
         <v>6</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>25</v>
+      </c>
+      <c r="U10" t="s">
+        <v>72</v>
+      </c>
+      <c r="V10">
         <v>18</v>
       </c>
-      <c r="T10">
-        <v>1</v>
-      </c>
-      <c r="U10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="W10">
+        <v>45</v>
+      </c>
+      <c r="X10" s="1">
+        <v>87.3</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>47.7</v>
+      </c>
+      <c r="Z10" s="1">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C11">
         <v>53.337839600000002</v>
@@ -1670,50 +2055,3475 @@
       <c r="G11">
         <v>10</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11" t="s">
+        <v>30</v>
+      </c>
+      <c r="O11" t="s">
+        <v>31</v>
+      </c>
+      <c r="P11" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>33</v>
+      </c>
+      <c r="R11" t="s">
+        <v>36</v>
+      </c>
+      <c r="S11" t="s">
+        <v>35</v>
+      </c>
+      <c r="T11" t="s">
+        <v>74</v>
+      </c>
+      <c r="U11" t="s">
+        <v>37</v>
+      </c>
+      <c r="V11">
+        <v>10</v>
+      </c>
+      <c r="W11">
+        <v>35</v>
+      </c>
+      <c r="X11" s="1">
+        <v>91.18</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>49.82</v>
+      </c>
+      <c r="Z11" s="1">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12">
+        <v>53.374544</v>
+      </c>
+      <c r="D12">
+        <v>-6.6005200000000004</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N12" t="s">
+        <v>30</v>
+      </c>
+      <c r="O12" t="s">
+        <v>31</v>
+      </c>
+      <c r="U12" t="s">
+        <v>76</v>
+      </c>
+      <c r="V12">
+        <v>23</v>
+      </c>
+      <c r="W12">
+        <v>32</v>
+      </c>
+      <c r="X12" s="1">
+        <v>18.43</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>10.07</v>
+      </c>
+      <c r="Z12" s="1">
+        <f t="shared" si="0"/>
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13">
+        <v>53.372258000000002</v>
+      </c>
+      <c r="D13">
+        <v>-6.4882710000000001</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" t="s">
+        <v>29</v>
+      </c>
+      <c r="N13" t="s">
+        <v>30</v>
+      </c>
+      <c r="O13" t="s">
+        <v>31</v>
+      </c>
+      <c r="U13" t="s">
+        <v>76</v>
+      </c>
+      <c r="V13">
+        <v>14</v>
+      </c>
+      <c r="W13">
+        <v>29</v>
+      </c>
+      <c r="X13" s="1">
+        <v>15.52</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>8.48</v>
+      </c>
+      <c r="Z13" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14">
+        <v>53.357242999999997</v>
+      </c>
+      <c r="D14">
+        <v>-6.3682049999999997</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N14" t="s">
+        <v>30</v>
+      </c>
+      <c r="O14" t="s">
+        <v>31</v>
+      </c>
+      <c r="U14" t="s">
+        <v>76</v>
+      </c>
+      <c r="V14">
         <v>18</v>
       </c>
-      <c r="I11" t="s">
+      <c r="W14">
+        <v>22</v>
+      </c>
+      <c r="X14" s="1">
+        <v>23.28</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>12.72</v>
+      </c>
+      <c r="Z14" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15">
+        <v>53.238166</v>
+      </c>
+      <c r="D15">
+        <v>-6.6682110000000003</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" t="s">
+        <v>29</v>
+      </c>
+      <c r="N15" t="s">
+        <v>30</v>
+      </c>
+      <c r="O15" t="s">
+        <v>31</v>
+      </c>
+      <c r="U15" t="s">
+        <v>76</v>
+      </c>
+      <c r="V15">
+        <v>23</v>
+      </c>
+      <c r="W15">
+        <v>32</v>
+      </c>
+      <c r="X15" s="1">
+        <v>15.52</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>8.48</v>
+      </c>
+      <c r="Z15" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16">
+        <v>53.211551</v>
+      </c>
+      <c r="D16">
+        <v>-6.6579370000000004</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" t="s">
+        <v>28</v>
+      </c>
+      <c r="M16" t="s">
+        <v>29</v>
+      </c>
+      <c r="N16" t="s">
+        <v>30</v>
+      </c>
+      <c r="O16" t="s">
+        <v>31</v>
+      </c>
+      <c r="U16" t="s">
+        <v>76</v>
+      </c>
+      <c r="V16">
+        <v>18</v>
+      </c>
+      <c r="W16">
+        <v>35</v>
+      </c>
+      <c r="X16" s="1">
+        <v>18.43</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>10.07</v>
+      </c>
+      <c r="Z16" s="1">
+        <f t="shared" si="0"/>
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17">
+        <v>53.289695999999999</v>
+      </c>
+      <c r="D17">
+        <v>-6.6825400000000004</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K17" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M17" t="s">
+        <v>29</v>
+      </c>
+      <c r="N17" t="s">
+        <v>30</v>
+      </c>
+      <c r="O17" t="s">
+        <v>31</v>
+      </c>
+      <c r="U17" t="s">
+        <v>76</v>
+      </c>
+      <c r="V17">
+        <v>12</v>
+      </c>
+      <c r="W17">
+        <v>18</v>
+      </c>
+      <c r="X17" s="1">
+        <v>23.28</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>12.72</v>
+      </c>
+      <c r="Z17" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18">
+        <v>52.99203</v>
+      </c>
+      <c r="D18">
+        <v>-6.9804750000000002</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" t="s">
+        <v>27</v>
+      </c>
+      <c r="L18" t="s">
+        <v>28</v>
+      </c>
+      <c r="M18" t="s">
+        <v>29</v>
+      </c>
+      <c r="N18" t="s">
+        <v>30</v>
+      </c>
+      <c r="O18" t="s">
+        <v>31</v>
+      </c>
+      <c r="U18" t="s">
+        <v>76</v>
+      </c>
+      <c r="V18">
+        <v>11</v>
+      </c>
+      <c r="W18">
+        <v>23</v>
+      </c>
+      <c r="X18" s="1">
+        <v>14.55</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>7.95</v>
+      </c>
+      <c r="Z18" s="1">
+        <f t="shared" si="0"/>
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19">
+        <v>53.210830000000001</v>
+      </c>
+      <c r="D19">
+        <v>-6.6525290000000004</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" t="s">
+        <v>28</v>
+      </c>
+      <c r="M19" t="s">
+        <v>29</v>
+      </c>
+      <c r="N19" t="s">
+        <v>30</v>
+      </c>
+      <c r="O19" t="s">
+        <v>31</v>
+      </c>
+      <c r="U19" t="s">
+        <v>76</v>
+      </c>
+      <c r="V19">
+        <v>20</v>
+      </c>
+      <c r="W19">
+        <v>32</v>
+      </c>
+      <c r="X19" s="1">
+        <v>13.58</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>7.42</v>
+      </c>
+      <c r="Z19" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20">
+        <v>52.985408999999997</v>
+      </c>
+      <c r="D20">
+        <v>-6.9793060000000002</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20" t="s">
+        <v>27</v>
+      </c>
+      <c r="L20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M20" t="s">
+        <v>29</v>
+      </c>
+      <c r="N20" t="s">
+        <v>30</v>
+      </c>
+      <c r="O20" t="s">
+        <v>31</v>
+      </c>
+      <c r="U20" t="s">
+        <v>76</v>
+      </c>
+      <c r="V20">
+        <v>11</v>
+      </c>
+      <c r="W20">
+        <v>26</v>
+      </c>
+      <c r="X20" s="1">
+        <v>23.28</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>12.72</v>
+      </c>
+      <c r="Z20" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>19</v>
       </c>
-      <c r="J11" t="s">
+      <c r="B21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21">
+        <v>53.132993999999997</v>
+      </c>
+      <c r="D21">
+        <v>-6.8418989999999997</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J21" t="s">
+        <v>26</v>
+      </c>
+      <c r="K21" t="s">
+        <v>27</v>
+      </c>
+      <c r="L21" t="s">
+        <v>28</v>
+      </c>
+      <c r="M21" t="s">
+        <v>29</v>
+      </c>
+      <c r="N21" t="s">
+        <v>30</v>
+      </c>
+      <c r="O21" t="s">
+        <v>31</v>
+      </c>
+      <c r="U21" t="s">
+        <v>76</v>
+      </c>
+      <c r="V21">
+        <v>24</v>
+      </c>
+      <c r="W21">
+        <v>28</v>
+      </c>
+      <c r="X21" s="1">
+        <v>24.25</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>13.25</v>
+      </c>
+      <c r="Z21" s="1">
+        <f t="shared" si="0"/>
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="K11" t="s">
+      <c r="B22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22">
+        <v>53.297125000000001</v>
+      </c>
+      <c r="D22">
+        <v>-6.6815410000000002</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>25</v>
+      </c>
+      <c r="J22" t="s">
+        <v>26</v>
+      </c>
+      <c r="K22" t="s">
+        <v>27</v>
+      </c>
+      <c r="L22" t="s">
+        <v>28</v>
+      </c>
+      <c r="M22" t="s">
+        <v>29</v>
+      </c>
+      <c r="N22" t="s">
+        <v>30</v>
+      </c>
+      <c r="O22" t="s">
+        <v>31</v>
+      </c>
+      <c r="U22" t="s">
+        <v>76</v>
+      </c>
+      <c r="V22">
+        <v>14</v>
+      </c>
+      <c r="W22">
+        <v>11</v>
+      </c>
+      <c r="X22" s="1">
+        <v>23.28</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>12.72</v>
+      </c>
+      <c r="Z22" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A23">
         <v>21</v>
       </c>
-      <c r="L11" t="s">
+      <c r="B23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23">
+        <v>53.339477000000002</v>
+      </c>
+      <c r="D23">
+        <v>-6.5387060000000004</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23" t="s">
+        <v>25</v>
+      </c>
+      <c r="J23" t="s">
+        <v>26</v>
+      </c>
+      <c r="K23" t="s">
+        <v>27</v>
+      </c>
+      <c r="L23" t="s">
+        <v>28</v>
+      </c>
+      <c r="M23" t="s">
+        <v>29</v>
+      </c>
+      <c r="N23" t="s">
+        <v>30</v>
+      </c>
+      <c r="O23" t="s">
+        <v>31</v>
+      </c>
+      <c r="U23" t="s">
+        <v>76</v>
+      </c>
+      <c r="V23">
+        <v>13</v>
+      </c>
+      <c r="W23">
+        <v>18</v>
+      </c>
+      <c r="X23" s="1">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>10.6</v>
+      </c>
+      <c r="Z23" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A24">
         <v>22</v>
       </c>
-      <c r="M11" t="s">
+      <c r="B24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24">
+        <v>53.344594000000001</v>
+      </c>
+      <c r="D24">
+        <v>-6.5418640000000003</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>25</v>
+      </c>
+      <c r="J24" t="s">
+        <v>26</v>
+      </c>
+      <c r="K24" t="s">
+        <v>27</v>
+      </c>
+      <c r="L24" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" t="s">
+        <v>29</v>
+      </c>
+      <c r="N24" t="s">
+        <v>30</v>
+      </c>
+      <c r="O24" t="s">
+        <v>31</v>
+      </c>
+      <c r="U24" t="s">
+        <v>76</v>
+      </c>
+      <c r="V24">
+        <v>18</v>
+      </c>
+      <c r="W24">
+        <v>26</v>
+      </c>
+      <c r="X24" s="1">
+        <v>18.43</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>10.07</v>
+      </c>
+      <c r="Z24" s="1">
+        <f t="shared" si="0"/>
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A25">
         <v>23</v>
       </c>
-      <c r="N11" t="s">
+      <c r="B25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25">
+        <v>53.339962999999997</v>
+      </c>
+      <c r="D25">
+        <v>-6.9401210000000004</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>25</v>
+      </c>
+      <c r="J25" t="s">
+        <v>26</v>
+      </c>
+      <c r="K25" t="s">
+        <v>27</v>
+      </c>
+      <c r="L25" t="s">
+        <v>28</v>
+      </c>
+      <c r="M25" t="s">
+        <v>29</v>
+      </c>
+      <c r="N25" t="s">
+        <v>30</v>
+      </c>
+      <c r="O25" t="s">
+        <v>31</v>
+      </c>
+      <c r="U25" t="s">
+        <v>76</v>
+      </c>
+      <c r="V25">
+        <v>22</v>
+      </c>
+      <c r="W25">
+        <v>19</v>
+      </c>
+      <c r="X25" s="1">
+        <v>11.64</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>6.36</v>
+      </c>
+      <c r="Z25" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A26">
         <v>24</v>
       </c>
-      <c r="O11" t="s">
+      <c r="B26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26">
+        <v>53.218575999999999</v>
+      </c>
+      <c r="D26">
+        <v>-6.6603389999999996</v>
+      </c>
+      <c r="E26">
+        <v>5</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26" t="s">
         <v>25</v>
       </c>
-      <c r="P11" t="s">
+      <c r="J26" t="s">
         <v>26</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="K26" t="s">
+        <v>27</v>
+      </c>
+      <c r="L26" t="s">
+        <v>28</v>
+      </c>
+      <c r="M26" t="s">
         <v>29</v>
       </c>
-      <c r="R11" t="s">
+      <c r="N26" t="s">
+        <v>30</v>
+      </c>
+      <c r="O26" t="s">
+        <v>31</v>
+      </c>
+      <c r="U26" t="s">
+        <v>76</v>
+      </c>
+      <c r="V26">
+        <v>18</v>
+      </c>
+      <c r="W26">
+        <v>35</v>
+      </c>
+      <c r="X26" s="1">
+        <v>16.489999999999998</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>9.01</v>
+      </c>
+      <c r="Z26" s="1">
+        <f t="shared" si="0"/>
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27">
+        <v>53.365074</v>
+      </c>
+      <c r="D27">
+        <v>-6.5175530000000004</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>25</v>
+      </c>
+      <c r="J27" t="s">
+        <v>26</v>
+      </c>
+      <c r="K27" t="s">
+        <v>27</v>
+      </c>
+      <c r="L27" t="s">
         <v>28</v>
       </c>
-      <c r="S11" t="s">
+      <c r="M27" t="s">
+        <v>29</v>
+      </c>
+      <c r="N27" t="s">
+        <v>30</v>
+      </c>
+      <c r="O27" t="s">
+        <v>31</v>
+      </c>
+      <c r="U27" t="s">
+        <v>76</v>
+      </c>
+      <c r="V27">
+        <v>17</v>
+      </c>
+      <c r="W27">
+        <v>18</v>
+      </c>
+      <c r="X27" s="1">
+        <v>12.61</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>6.89</v>
+      </c>
+      <c r="Z27" s="1">
+        <f t="shared" si="0"/>
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28">
+        <v>53.210639</v>
+      </c>
+      <c r="D28">
+        <v>-6.6603649999999996</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J28" t="s">
+        <v>26</v>
+      </c>
+      <c r="K28" t="s">
+        <v>27</v>
+      </c>
+      <c r="L28" t="s">
+        <v>28</v>
+      </c>
+      <c r="M28" t="s">
+        <v>29</v>
+      </c>
+      <c r="N28" t="s">
+        <v>30</v>
+      </c>
+      <c r="O28" t="s">
+        <v>31</v>
+      </c>
+      <c r="U28" t="s">
+        <v>76</v>
+      </c>
+      <c r="V28">
+        <v>24</v>
+      </c>
+      <c r="W28">
+        <v>17</v>
+      </c>
+      <c r="X28" s="1">
+        <v>13.58</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>7.42</v>
+      </c>
+      <c r="Z28" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29">
+        <v>53.130904999999998</v>
+      </c>
+      <c r="D29">
+        <v>-6.7447809999999997</v>
+      </c>
+      <c r="E29">
+        <v>5</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29" t="s">
+        <v>25</v>
+      </c>
+      <c r="J29" t="s">
+        <v>26</v>
+      </c>
+      <c r="K29" t="s">
+        <v>27</v>
+      </c>
+      <c r="L29" t="s">
+        <v>28</v>
+      </c>
+      <c r="M29" t="s">
+        <v>29</v>
+      </c>
+      <c r="N29" t="s">
+        <v>30</v>
+      </c>
+      <c r="O29" t="s">
+        <v>31</v>
+      </c>
+      <c r="U29" t="s">
+        <v>76</v>
+      </c>
+      <c r="V29">
+        <v>16</v>
+      </c>
+      <c r="W29">
+        <v>25</v>
+      </c>
+      <c r="X29" s="1">
+        <v>24.25</v>
+      </c>
+      <c r="Y29" s="1">
+        <v>13.25</v>
+      </c>
+      <c r="Z29" s="1">
+        <f t="shared" si="0"/>
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30">
+        <v>53.130879</v>
+      </c>
+      <c r="D30">
+        <v>-6.7447809999999997</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30" t="s">
+        <v>25</v>
+      </c>
+      <c r="J30" t="s">
+        <v>26</v>
+      </c>
+      <c r="K30" t="s">
+        <v>27</v>
+      </c>
+      <c r="L30" t="s">
+        <v>28</v>
+      </c>
+      <c r="M30" t="s">
+        <v>29</v>
+      </c>
+      <c r="N30" t="s">
+        <v>30</v>
+      </c>
+      <c r="O30" t="s">
+        <v>31</v>
+      </c>
+      <c r="U30" t="s">
+        <v>76</v>
+      </c>
+      <c r="V30">
+        <v>21</v>
+      </c>
+      <c r="W30">
+        <v>16</v>
+      </c>
+      <c r="X30" s="1">
+        <v>23.28</v>
+      </c>
+      <c r="Y30" s="1">
+        <v>12.72</v>
+      </c>
+      <c r="Z30" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31">
+        <v>53.154274000000001</v>
+      </c>
+      <c r="D31">
+        <v>-6.9018680000000003</v>
+      </c>
+      <c r="E31">
+        <v>4</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31" t="s">
+        <v>25</v>
+      </c>
+      <c r="J31" t="s">
+        <v>26</v>
+      </c>
+      <c r="K31" t="s">
+        <v>27</v>
+      </c>
+      <c r="L31" t="s">
+        <v>28</v>
+      </c>
+      <c r="M31" t="s">
+        <v>29</v>
+      </c>
+      <c r="N31" t="s">
+        <v>30</v>
+      </c>
+      <c r="O31" t="s">
+        <v>31</v>
+      </c>
+      <c r="U31" t="s">
+        <v>76</v>
+      </c>
+      <c r="V31">
+        <v>14</v>
+      </c>
+      <c r="W31">
+        <v>31</v>
+      </c>
+      <c r="X31" s="1">
+        <v>11.64</v>
+      </c>
+      <c r="Y31" s="1">
+        <v>6.36</v>
+      </c>
+      <c r="Z31" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32">
+        <v>53.372306999999999</v>
+      </c>
+      <c r="D32">
+        <v>-6.5901009999999998</v>
+      </c>
+      <c r="E32">
+        <v>4</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32" t="s">
+        <v>25</v>
+      </c>
+      <c r="J32" t="s">
+        <v>26</v>
+      </c>
+      <c r="K32" t="s">
+        <v>27</v>
+      </c>
+      <c r="L32" t="s">
+        <v>28</v>
+      </c>
+      <c r="M32" t="s">
+        <v>29</v>
+      </c>
+      <c r="N32" t="s">
+        <v>30</v>
+      </c>
+      <c r="O32" t="s">
+        <v>31</v>
+      </c>
+      <c r="U32" t="s">
+        <v>76</v>
+      </c>
+      <c r="V32">
+        <v>23</v>
+      </c>
+      <c r="W32">
+        <v>31</v>
+      </c>
+      <c r="X32" s="1">
+        <v>14.55</v>
+      </c>
+      <c r="Y32" s="1">
+        <v>7.95</v>
+      </c>
+      <c r="Z32" s="1">
+        <f t="shared" si="0"/>
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33">
+        <v>53.131253999999998</v>
+      </c>
+      <c r="D33">
+        <v>-6.7442890000000002</v>
+      </c>
+      <c r="E33">
+        <v>5</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33" t="s">
+        <v>25</v>
+      </c>
+      <c r="J33" t="s">
+        <v>26</v>
+      </c>
+      <c r="K33" t="s">
+        <v>27</v>
+      </c>
+      <c r="L33" t="s">
+        <v>28</v>
+      </c>
+      <c r="M33" t="s">
+        <v>29</v>
+      </c>
+      <c r="N33" t="s">
+        <v>30</v>
+      </c>
+      <c r="O33" t="s">
+        <v>31</v>
+      </c>
+      <c r="U33" t="s">
+        <v>76</v>
+      </c>
+      <c r="V33">
+        <v>21</v>
+      </c>
+      <c r="W33">
+        <v>23</v>
+      </c>
+      <c r="X33" s="1">
+        <v>14.55</v>
+      </c>
+      <c r="Y33" s="1">
+        <v>7.95</v>
+      </c>
+      <c r="Z33" s="1">
+        <f t="shared" si="0"/>
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34">
+        <v>53.38214</v>
+      </c>
+      <c r="D34">
+        <v>-6.5901449999999997</v>
+      </c>
+      <c r="E34">
+        <v>4</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34" t="s">
+        <v>25</v>
+      </c>
+      <c r="J34" t="s">
+        <v>26</v>
+      </c>
+      <c r="K34" t="s">
+        <v>27</v>
+      </c>
+      <c r="L34" t="s">
+        <v>28</v>
+      </c>
+      <c r="M34" t="s">
+        <v>29</v>
+      </c>
+      <c r="N34" t="s">
+        <v>30</v>
+      </c>
+      <c r="O34" t="s">
+        <v>31</v>
+      </c>
+      <c r="U34" t="s">
+        <v>76</v>
+      </c>
+      <c r="V34">
+        <v>10</v>
+      </c>
+      <c r="W34">
+        <v>34</v>
+      </c>
+      <c r="X34" s="1">
+        <v>13.58</v>
+      </c>
+      <c r="Y34" s="1">
+        <v>7.42</v>
+      </c>
+      <c r="Z34" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35">
+        <v>53.143695999999998</v>
+      </c>
+      <c r="D35">
+        <v>-7.065912</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35" t="s">
+        <v>25</v>
+      </c>
+      <c r="J35" t="s">
+        <v>26</v>
+      </c>
+      <c r="K35" t="s">
+        <v>27</v>
+      </c>
+      <c r="L35" t="s">
+        <v>28</v>
+      </c>
+      <c r="M35" t="s">
+        <v>29</v>
+      </c>
+      <c r="N35" t="s">
+        <v>30</v>
+      </c>
+      <c r="O35" t="s">
+        <v>31</v>
+      </c>
+      <c r="U35" t="s">
+        <v>76</v>
+      </c>
+      <c r="V35">
+        <v>21</v>
+      </c>
+      <c r="W35">
+        <v>16</v>
+      </c>
+      <c r="X35" s="1">
+        <v>20.37</v>
+      </c>
+      <c r="Y35" s="1">
+        <v>11.13</v>
+      </c>
+      <c r="Z35" s="1">
+        <f t="shared" si="0"/>
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36">
+        <v>53.174118</v>
+      </c>
+      <c r="D36">
+        <v>-6.8064030000000004</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36" t="s">
+        <v>25</v>
+      </c>
+      <c r="J36" t="s">
+        <v>26</v>
+      </c>
+      <c r="K36" t="s">
+        <v>27</v>
+      </c>
+      <c r="L36" t="s">
+        <v>28</v>
+      </c>
+      <c r="M36" t="s">
+        <v>29</v>
+      </c>
+      <c r="N36" t="s">
+        <v>30</v>
+      </c>
+      <c r="O36" t="s">
+        <v>31</v>
+      </c>
+      <c r="U36" t="s">
+        <v>76</v>
+      </c>
+      <c r="V36">
+        <v>22</v>
+      </c>
+      <c r="W36">
+        <v>23</v>
+      </c>
+      <c r="X36" s="1">
+        <v>11.64</v>
+      </c>
+      <c r="Y36" s="1">
+        <v>6.36</v>
+      </c>
+      <c r="Z36" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37">
+        <v>53.224497999999997</v>
+      </c>
+      <c r="D37">
+        <v>-6.6529920000000002</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37" t="s">
+        <v>25</v>
+      </c>
+      <c r="J37" t="s">
+        <v>26</v>
+      </c>
+      <c r="K37" t="s">
+        <v>27</v>
+      </c>
+      <c r="L37" t="s">
+        <v>28</v>
+      </c>
+      <c r="M37" t="s">
+        <v>29</v>
+      </c>
+      <c r="N37" t="s">
+        <v>30</v>
+      </c>
+      <c r="O37" t="s">
+        <v>31</v>
+      </c>
+      <c r="U37" t="s">
+        <v>76</v>
+      </c>
+      <c r="V37">
+        <v>12</v>
+      </c>
+      <c r="W37">
+        <v>28</v>
+      </c>
+      <c r="X37" s="1">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="Y37" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="Z37" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38">
+        <v>53.224338000000003</v>
+      </c>
+      <c r="D38">
+        <v>-6.652946</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38" t="s">
+        <v>25</v>
+      </c>
+      <c r="J38" t="s">
+        <v>26</v>
+      </c>
+      <c r="K38" t="s">
+        <v>27</v>
+      </c>
+      <c r="L38" t="s">
+        <v>28</v>
+      </c>
+      <c r="M38" t="s">
+        <v>29</v>
+      </c>
+      <c r="N38" t="s">
+        <v>30</v>
+      </c>
+      <c r="O38" t="s">
+        <v>31</v>
+      </c>
+      <c r="U38" t="s">
+        <v>76</v>
+      </c>
+      <c r="V38">
+        <v>24</v>
+      </c>
+      <c r="W38">
+        <v>23</v>
+      </c>
+      <c r="X38" s="1">
+        <v>12.61</v>
+      </c>
+      <c r="Y38" s="1">
+        <v>6.89</v>
+      </c>
+      <c r="Z38" s="1">
+        <f t="shared" si="0"/>
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39">
+        <v>53.176195</v>
+      </c>
+      <c r="D39">
+        <v>-6.8055199999999996</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39" t="s">
+        <v>25</v>
+      </c>
+      <c r="J39" t="s">
+        <v>26</v>
+      </c>
+      <c r="K39" t="s">
+        <v>27</v>
+      </c>
+      <c r="L39" t="s">
+        <v>28</v>
+      </c>
+      <c r="M39" t="s">
+        <v>29</v>
+      </c>
+      <c r="N39" t="s">
+        <v>30</v>
+      </c>
+      <c r="O39" t="s">
+        <v>31</v>
+      </c>
+      <c r="U39" t="s">
+        <v>76</v>
+      </c>
+      <c r="V39">
+        <v>10</v>
+      </c>
+      <c r="W39">
+        <v>14</v>
+      </c>
+      <c r="X39" s="1">
+        <v>14.55</v>
+      </c>
+      <c r="Y39" s="1">
+        <v>7.95</v>
+      </c>
+      <c r="Z39" s="1">
+        <f t="shared" si="0"/>
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40">
+        <v>53.182495000000003</v>
+      </c>
+      <c r="D40">
+        <v>-6.8023629999999997</v>
+      </c>
+      <c r="E40">
+        <v>4</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40" t="s">
+        <v>25</v>
+      </c>
+      <c r="J40" t="s">
+        <v>26</v>
+      </c>
+      <c r="K40" t="s">
+        <v>27</v>
+      </c>
+      <c r="L40" t="s">
+        <v>28</v>
+      </c>
+      <c r="M40" t="s">
+        <v>29</v>
+      </c>
+      <c r="N40" t="s">
+        <v>30</v>
+      </c>
+      <c r="O40" t="s">
+        <v>31</v>
+      </c>
+      <c r="U40" t="s">
+        <v>76</v>
+      </c>
+      <c r="V40">
+        <v>24</v>
+      </c>
+      <c r="W40">
+        <v>21</v>
+      </c>
+      <c r="X40" s="1">
+        <v>15.52</v>
+      </c>
+      <c r="Y40" s="1">
+        <v>8.48</v>
+      </c>
+      <c r="Z40" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41">
+        <v>53.387760999999998</v>
+      </c>
+      <c r="D41">
+        <v>-6.5896379999999999</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41" t="s">
+        <v>25</v>
+      </c>
+      <c r="J41" t="s">
+        <v>26</v>
+      </c>
+      <c r="K41" t="s">
+        <v>27</v>
+      </c>
+      <c r="L41" t="s">
+        <v>28</v>
+      </c>
+      <c r="M41" t="s">
+        <v>29</v>
+      </c>
+      <c r="N41" t="s">
+        <v>30</v>
+      </c>
+      <c r="O41" t="s">
+        <v>31</v>
+      </c>
+      <c r="U41" t="s">
+        <v>76</v>
+      </c>
+      <c r="V41">
+        <v>25</v>
+      </c>
+      <c r="W41">
+        <v>17</v>
+      </c>
+      <c r="X41" s="1">
+        <v>14.55</v>
+      </c>
+      <c r="Y41" s="1">
+        <v>7.95</v>
+      </c>
+      <c r="Z41" s="1">
+        <f t="shared" si="0"/>
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42">
+        <v>53.336317999999999</v>
+      </c>
+      <c r="D42">
+        <v>-6.5305239999999998</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42" t="s">
+        <v>25</v>
+      </c>
+      <c r="J42" t="s">
+        <v>26</v>
+      </c>
+      <c r="K42" t="s">
+        <v>27</v>
+      </c>
+      <c r="L42" t="s">
+        <v>28</v>
+      </c>
+      <c r="M42" t="s">
+        <v>29</v>
+      </c>
+      <c r="N42" t="s">
+        <v>30</v>
+      </c>
+      <c r="O42" t="s">
+        <v>31</v>
+      </c>
+      <c r="U42" t="s">
+        <v>76</v>
+      </c>
+      <c r="V42">
+        <v>25</v>
+      </c>
+      <c r="W42">
+        <v>26</v>
+      </c>
+      <c r="X42" s="1">
+        <v>11.64</v>
+      </c>
+      <c r="Y42" s="1">
+        <v>6.36</v>
+      </c>
+      <c r="Z42" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43">
+        <v>53.221046999999999</v>
+      </c>
+      <c r="D43">
+        <v>-6.992648</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43" t="s">
+        <v>25</v>
+      </c>
+      <c r="J43" t="s">
+        <v>26</v>
+      </c>
+      <c r="K43" t="s">
+        <v>27</v>
+      </c>
+      <c r="L43" t="s">
+        <v>28</v>
+      </c>
+      <c r="M43" t="s">
+        <v>29</v>
+      </c>
+      <c r="N43" t="s">
+        <v>30</v>
+      </c>
+      <c r="O43" t="s">
+        <v>31</v>
+      </c>
+      <c r="U43" t="s">
+        <v>76</v>
+      </c>
+      <c r="V43">
+        <v>20</v>
+      </c>
+      <c r="W43">
+        <v>11</v>
+      </c>
+      <c r="X43" s="1">
+        <v>18.43</v>
+      </c>
+      <c r="Y43" s="1">
+        <v>10.07</v>
+      </c>
+      <c r="Z43" s="1">
+        <f t="shared" si="0"/>
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44">
+        <v>53.371183000000002</v>
+      </c>
+      <c r="D44">
+        <v>-6.4874710000000002</v>
+      </c>
+      <c r="E44">
+        <v>5</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44" t="s">
+        <v>25</v>
+      </c>
+      <c r="J44" t="s">
+        <v>26</v>
+      </c>
+      <c r="K44" t="s">
+        <v>27</v>
+      </c>
+      <c r="L44" t="s">
+        <v>28</v>
+      </c>
+      <c r="M44" t="s">
+        <v>29</v>
+      </c>
+      <c r="N44" t="s">
+        <v>30</v>
+      </c>
+      <c r="O44" t="s">
+        <v>31</v>
+      </c>
+      <c r="U44" t="s">
+        <v>76</v>
+      </c>
+      <c r="V44">
+        <v>23</v>
+      </c>
+      <c r="W44">
+        <v>21</v>
+      </c>
+      <c r="X44" s="1">
+        <v>24.25</v>
+      </c>
+      <c r="Y44" s="1">
+        <v>13.25</v>
+      </c>
+      <c r="Z44" s="1">
+        <f t="shared" si="0"/>
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>108</v>
+      </c>
+      <c r="C45">
+        <v>53.364075</v>
+      </c>
+      <c r="D45">
+        <v>-6.4928590000000002</v>
+      </c>
+      <c r="E45">
+        <v>4</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45" t="s">
+        <v>25</v>
+      </c>
+      <c r="J45" t="s">
+        <v>26</v>
+      </c>
+      <c r="K45" t="s">
+        <v>27</v>
+      </c>
+      <c r="L45" t="s">
+        <v>28</v>
+      </c>
+      <c r="M45" t="s">
+        <v>29</v>
+      </c>
+      <c r="N45" t="s">
+        <v>30</v>
+      </c>
+      <c r="O45" t="s">
+        <v>31</v>
+      </c>
+      <c r="U45" t="s">
+        <v>76</v>
+      </c>
+      <c r="V45">
+        <v>16</v>
+      </c>
+      <c r="W45">
+        <v>19</v>
+      </c>
+      <c r="X45" s="1">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="Y45" s="1">
+        <v>10.6</v>
+      </c>
+      <c r="Z45" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>109</v>
+      </c>
+      <c r="C46">
+        <v>53.184598999999999</v>
+      </c>
+      <c r="D46">
+        <v>-6.8090190000000002</v>
+      </c>
+      <c r="E46">
+        <v>4</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46" t="s">
+        <v>25</v>
+      </c>
+      <c r="J46" t="s">
+        <v>26</v>
+      </c>
+      <c r="K46" t="s">
+        <v>27</v>
+      </c>
+      <c r="L46" t="s">
+        <v>28</v>
+      </c>
+      <c r="M46" t="s">
+        <v>29</v>
+      </c>
+      <c r="N46" t="s">
+        <v>30</v>
+      </c>
+      <c r="O46" t="s">
+        <v>31</v>
+      </c>
+      <c r="U46" t="s">
+        <v>76</v>
+      </c>
+      <c r="V46">
+        <v>20</v>
+      </c>
+      <c r="W46">
+        <v>24</v>
+      </c>
+      <c r="X46" s="1">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="Y46" s="1">
+        <v>10.6</v>
+      </c>
+      <c r="Z46" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>110</v>
+      </c>
+      <c r="C47">
+        <v>53.288333999999999</v>
+      </c>
+      <c r="D47">
+        <v>-6.7537029999999998</v>
+      </c>
+      <c r="E47">
+        <v>4</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47" t="s">
+        <v>25</v>
+      </c>
+      <c r="J47" t="s">
+        <v>26</v>
+      </c>
+      <c r="K47" t="s">
+        <v>27</v>
+      </c>
+      <c r="L47" t="s">
+        <v>28</v>
+      </c>
+      <c r="M47" t="s">
+        <v>29</v>
+      </c>
+      <c r="N47" t="s">
+        <v>30</v>
+      </c>
+      <c r="O47" t="s">
+        <v>31</v>
+      </c>
+      <c r="U47" t="s">
+        <v>76</v>
+      </c>
+      <c r="V47">
+        <v>25</v>
+      </c>
+      <c r="W47">
+        <v>15</v>
+      </c>
+      <c r="X47" s="1">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="Y47" s="1">
+        <v>10.6</v>
+      </c>
+      <c r="Z47" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>111</v>
+      </c>
+      <c r="C48">
+        <v>53.131253999999998</v>
+      </c>
+      <c r="D48">
+        <v>-6.7443</v>
+      </c>
+      <c r="E48">
+        <v>3</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48" t="s">
+        <v>25</v>
+      </c>
+      <c r="J48" t="s">
+        <v>26</v>
+      </c>
+      <c r="K48" t="s">
+        <v>27</v>
+      </c>
+      <c r="L48" t="s">
+        <v>28</v>
+      </c>
+      <c r="M48" t="s">
+        <v>29</v>
+      </c>
+      <c r="N48" t="s">
+        <v>30</v>
+      </c>
+      <c r="O48" t="s">
+        <v>31</v>
+      </c>
+      <c r="U48" t="s">
+        <v>76</v>
+      </c>
+      <c r="V48">
+        <v>18</v>
+      </c>
+      <c r="W48">
+        <v>30</v>
+      </c>
+      <c r="X48" s="1">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="Y48" s="1">
+        <v>10.6</v>
+      </c>
+      <c r="Z48" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>112</v>
+      </c>
+      <c r="C49">
+        <v>53.344535999999998</v>
+      </c>
+      <c r="D49">
+        <v>-6.5455629999999996</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49" t="s">
+        <v>25</v>
+      </c>
+      <c r="J49" t="s">
+        <v>26</v>
+      </c>
+      <c r="K49" t="s">
+        <v>27</v>
+      </c>
+      <c r="L49" t="s">
+        <v>28</v>
+      </c>
+      <c r="M49" t="s">
+        <v>29</v>
+      </c>
+      <c r="N49" t="s">
+        <v>30</v>
+      </c>
+      <c r="O49" t="s">
+        <v>31</v>
+      </c>
+      <c r="U49" t="s">
+        <v>76</v>
+      </c>
+      <c r="V49">
+        <v>22</v>
+      </c>
+      <c r="W49">
+        <v>34</v>
+      </c>
+      <c r="X49" s="1">
+        <v>17.46</v>
+      </c>
+      <c r="Y49" s="1">
+        <v>9.5399999999999991</v>
+      </c>
+      <c r="Z49" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50">
+        <v>52.994047999999999</v>
+      </c>
+      <c r="D50">
+        <v>-6.9642559999999998</v>
+      </c>
+      <c r="E50">
+        <v>5</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50" t="s">
+        <v>25</v>
+      </c>
+      <c r="J50" t="s">
+        <v>26</v>
+      </c>
+      <c r="K50" t="s">
+        <v>27</v>
+      </c>
+      <c r="L50" t="s">
+        <v>28</v>
+      </c>
+      <c r="M50" t="s">
+        <v>29</v>
+      </c>
+      <c r="N50" t="s">
+        <v>30</v>
+      </c>
+      <c r="O50" t="s">
+        <v>31</v>
+      </c>
+      <c r="U50" t="s">
+        <v>76</v>
+      </c>
+      <c r="V50">
+        <v>16</v>
+      </c>
+      <c r="W50">
+        <v>30</v>
+      </c>
+      <c r="X50" s="1">
+        <v>10.67</v>
+      </c>
+      <c r="Y50" s="1">
+        <v>5.83</v>
+      </c>
+      <c r="Z50" s="1">
+        <f t="shared" si="0"/>
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51">
+        <v>53.232213999999999</v>
+      </c>
+      <c r="D51">
+        <v>-6.6533709999999999</v>
+      </c>
+      <c r="E51">
+        <v>3</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51" t="s">
+        <v>25</v>
+      </c>
+      <c r="J51" t="s">
+        <v>26</v>
+      </c>
+      <c r="K51" t="s">
+        <v>27</v>
+      </c>
+      <c r="L51" t="s">
+        <v>28</v>
+      </c>
+      <c r="M51" t="s">
+        <v>29</v>
+      </c>
+      <c r="N51" t="s">
+        <v>30</v>
+      </c>
+      <c r="O51" t="s">
+        <v>31</v>
+      </c>
+      <c r="U51" t="s">
+        <v>76</v>
+      </c>
+      <c r="V51">
+        <v>25</v>
+      </c>
+      <c r="W51">
+        <v>32</v>
+      </c>
+      <c r="X51" s="1">
+        <v>12.61</v>
+      </c>
+      <c r="Y51" s="1">
+        <v>6.89</v>
+      </c>
+      <c r="Z51" s="1">
+        <f t="shared" si="0"/>
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>115</v>
+      </c>
+      <c r="C52">
+        <v>53.290689999999998</v>
+      </c>
+      <c r="D52">
+        <v>-6.6872280000000002</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52" t="s">
+        <v>25</v>
+      </c>
+      <c r="J52" t="s">
+        <v>26</v>
+      </c>
+      <c r="K52" t="s">
+        <v>27</v>
+      </c>
+      <c r="L52" t="s">
+        <v>28</v>
+      </c>
+      <c r="M52" t="s">
+        <v>29</v>
+      </c>
+      <c r="N52" t="s">
+        <v>30</v>
+      </c>
+      <c r="O52" t="s">
+        <v>31</v>
+      </c>
+      <c r="U52" t="s">
+        <v>76</v>
+      </c>
+      <c r="V52">
+        <v>10</v>
+      </c>
+      <c r="W52">
+        <v>17</v>
+      </c>
+      <c r="X52" s="1">
+        <v>12.61</v>
+      </c>
+      <c r="Y52" s="1">
+        <v>6.89</v>
+      </c>
+      <c r="Z52" s="1">
+        <f t="shared" si="0"/>
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>116</v>
+      </c>
+      <c r="C53">
+        <v>53.293940999999997</v>
+      </c>
+      <c r="D53">
+        <v>-6.6865309999999996</v>
+      </c>
+      <c r="E53">
+        <v>3</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53" t="s">
+        <v>25</v>
+      </c>
+      <c r="J53" t="s">
+        <v>26</v>
+      </c>
+      <c r="K53" t="s">
+        <v>27</v>
+      </c>
+      <c r="L53" t="s">
+        <v>28</v>
+      </c>
+      <c r="M53" t="s">
+        <v>29</v>
+      </c>
+      <c r="N53" t="s">
+        <v>30</v>
+      </c>
+      <c r="O53" t="s">
+        <v>31</v>
+      </c>
+      <c r="U53" t="s">
+        <v>76</v>
+      </c>
+      <c r="V53">
+        <v>19</v>
+      </c>
+      <c r="W53">
+        <v>10</v>
+      </c>
+      <c r="X53" s="1">
+        <v>22.31</v>
+      </c>
+      <c r="Y53" s="1">
+        <v>12.19</v>
+      </c>
+      <c r="Z53" s="1">
+        <f t="shared" si="0"/>
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54">
+        <v>53.138776999999997</v>
+      </c>
+      <c r="D54">
+        <v>-7.0627219999999999</v>
+      </c>
+      <c r="E54">
+        <v>3</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54" t="s">
+        <v>25</v>
+      </c>
+      <c r="J54" t="s">
+        <v>26</v>
+      </c>
+      <c r="K54" t="s">
+        <v>27</v>
+      </c>
+      <c r="L54" t="s">
+        <v>28</v>
+      </c>
+      <c r="M54" t="s">
+        <v>29</v>
+      </c>
+      <c r="N54" t="s">
+        <v>30</v>
+      </c>
+      <c r="O54" t="s">
+        <v>31</v>
+      </c>
+      <c r="U54" t="s">
+        <v>76</v>
+      </c>
+      <c r="V54">
+        <v>13</v>
+      </c>
+      <c r="W54">
+        <v>27</v>
+      </c>
+      <c r="X54" s="1">
+        <v>15.52</v>
+      </c>
+      <c r="Y54" s="1">
+        <v>8.48</v>
+      </c>
+      <c r="Z54" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55">
+        <v>53.348151999999999</v>
+      </c>
+      <c r="D55">
+        <v>-6.5423840000000002</v>
+      </c>
+      <c r="E55">
+        <v>3</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55" t="s">
+        <v>25</v>
+      </c>
+      <c r="J55" t="s">
+        <v>26</v>
+      </c>
+      <c r="K55" t="s">
+        <v>27</v>
+      </c>
+      <c r="L55" t="s">
+        <v>28</v>
+      </c>
+      <c r="M55" t="s">
+        <v>29</v>
+      </c>
+      <c r="N55" t="s">
+        <v>30</v>
+      </c>
+      <c r="O55" t="s">
+        <v>31</v>
+      </c>
+      <c r="U55" t="s">
+        <v>76</v>
+      </c>
+      <c r="V55">
+        <v>22</v>
+      </c>
+      <c r="W55">
+        <v>26</v>
+      </c>
+      <c r="X55" s="1">
+        <v>11.64</v>
+      </c>
+      <c r="Y55" s="1">
+        <v>6.36</v>
+      </c>
+      <c r="Z55" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>119</v>
+      </c>
+      <c r="C56">
+        <v>53.211471400000001</v>
+      </c>
+      <c r="D56">
+        <v>-6.6618909000000004</v>
+      </c>
+      <c r="E56">
+        <v>38</v>
+      </c>
+      <c r="F56">
+        <v>47</v>
+      </c>
+      <c r="G56">
+        <v>8</v>
+      </c>
+      <c r="H56">
+        <v>23</v>
+      </c>
+      <c r="I56" t="s">
+        <v>45</v>
+      </c>
+      <c r="J56" t="s">
+        <v>46</v>
+      </c>
+      <c r="K56" t="s">
+        <v>47</v>
+      </c>
+      <c r="L56" t="s">
+        <v>48</v>
+      </c>
+      <c r="M56" t="s">
+        <v>49</v>
+      </c>
+      <c r="N56" t="s">
+        <v>50</v>
+      </c>
+      <c r="O56" t="s">
+        <v>51</v>
+      </c>
+      <c r="P56" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>53</v>
+      </c>
+      <c r="U56" t="s">
+        <v>54</v>
+      </c>
+      <c r="V56">
+        <v>61</v>
+      </c>
+      <c r="W56">
+        <v>110</v>
+      </c>
+      <c r="X56" s="1">
+        <v>75</v>
+      </c>
+      <c r="Y56" s="1">
+        <v>76</v>
+      </c>
+      <c r="Z56" s="1">
+        <f t="shared" si="0"/>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>120</v>
+      </c>
+      <c r="C57">
+        <v>53.290645900000001</v>
+      </c>
+      <c r="D57">
+        <v>-6.3782541000000004</v>
+      </c>
+      <c r="E57">
+        <v>32</v>
+      </c>
+      <c r="F57">
+        <v>95</v>
+      </c>
+      <c r="G57">
+        <v>11</v>
+      </c>
+      <c r="H57">
+        <v>30</v>
+      </c>
+      <c r="I57" t="s">
+        <v>45</v>
+      </c>
+      <c r="J57" t="s">
+        <v>46</v>
+      </c>
+      <c r="K57" t="s">
+        <v>47</v>
+      </c>
+      <c r="L57" t="s">
+        <v>48</v>
+      </c>
+      <c r="M57" t="s">
+        <v>49</v>
+      </c>
+      <c r="N57" t="s">
+        <v>50</v>
+      </c>
+      <c r="O57" t="s">
+        <v>51</v>
+      </c>
+      <c r="P57" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>53</v>
+      </c>
+      <c r="U57" t="s">
+        <v>54</v>
+      </c>
+      <c r="V57">
+        <v>90</v>
+      </c>
+      <c r="W57">
+        <v>72</v>
+      </c>
+      <c r="X57" s="1">
         <v>65</v>
       </c>
-      <c r="T11">
-        <v>12</v>
-      </c>
-      <c r="U11" t="s">
-        <v>30</v>
+      <c r="Y57" s="1">
+        <v>114</v>
+      </c>
+      <c r="Z57" s="1">
+        <f t="shared" si="0"/>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C58">
+        <v>53.353091900000003</v>
+      </c>
+      <c r="D58">
+        <v>-6.2631778999999996</v>
+      </c>
+      <c r="E58">
+        <v>38</v>
+      </c>
+      <c r="F58">
+        <v>39</v>
+      </c>
+      <c r="G58">
+        <v>13</v>
+      </c>
+      <c r="H58">
+        <v>27</v>
+      </c>
+      <c r="I58" t="s">
+        <v>45</v>
+      </c>
+      <c r="J58" t="s">
+        <v>46</v>
+      </c>
+      <c r="K58" t="s">
+        <v>47</v>
+      </c>
+      <c r="L58" t="s">
+        <v>48</v>
+      </c>
+      <c r="M58" t="s">
+        <v>49</v>
+      </c>
+      <c r="N58" t="s">
+        <v>50</v>
+      </c>
+      <c r="O58" t="s">
+        <v>51</v>
+      </c>
+      <c r="P58" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>53</v>
+      </c>
+      <c r="U58" t="s">
+        <v>54</v>
+      </c>
+      <c r="V58">
+        <v>116</v>
+      </c>
+      <c r="W58">
+        <v>120</v>
+      </c>
+      <c r="X58" s="1">
+        <v>112</v>
+      </c>
+      <c r="Y58" s="1">
+        <v>91</v>
+      </c>
+      <c r="Z58" s="1">
+        <f t="shared" si="0"/>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>122</v>
+      </c>
+      <c r="C59">
+        <v>53.334950300000003</v>
+      </c>
+      <c r="D59">
+        <v>-6.2884348000000001</v>
+      </c>
+      <c r="E59">
+        <v>39</v>
+      </c>
+      <c r="F59">
+        <v>79</v>
+      </c>
+      <c r="G59">
+        <v>4</v>
+      </c>
+      <c r="H59">
+        <v>24</v>
+      </c>
+      <c r="I59" t="s">
+        <v>45</v>
+      </c>
+      <c r="J59" t="s">
+        <v>46</v>
+      </c>
+      <c r="K59" t="s">
+        <v>47</v>
+      </c>
+      <c r="L59" t="s">
+        <v>48</v>
+      </c>
+      <c r="M59" t="s">
+        <v>49</v>
+      </c>
+      <c r="N59" t="s">
+        <v>50</v>
+      </c>
+      <c r="O59" t="s">
+        <v>51</v>
+      </c>
+      <c r="P59" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>53</v>
+      </c>
+      <c r="U59" t="s">
+        <v>54</v>
+      </c>
+      <c r="V59">
+        <v>76</v>
+      </c>
+      <c r="W59">
+        <v>68</v>
+      </c>
+      <c r="X59" s="1">
+        <v>79</v>
+      </c>
+      <c r="Y59" s="1">
+        <v>76</v>
+      </c>
+      <c r="Z59" s="1">
+        <f t="shared" si="0"/>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>123</v>
+      </c>
+      <c r="C60">
+        <v>53.318113199999999</v>
+      </c>
+      <c r="D60">
+        <v>-6.4805101000000001</v>
+      </c>
+      <c r="E60">
+        <v>37</v>
+      </c>
+      <c r="F60">
+        <v>74</v>
+      </c>
+      <c r="G60">
+        <v>9</v>
+      </c>
+      <c r="H60">
+        <v>17</v>
+      </c>
+      <c r="I60" t="s">
+        <v>45</v>
+      </c>
+      <c r="J60" t="s">
+        <v>46</v>
+      </c>
+      <c r="K60" t="s">
+        <v>47</v>
+      </c>
+      <c r="L60" t="s">
+        <v>48</v>
+      </c>
+      <c r="M60" t="s">
+        <v>49</v>
+      </c>
+      <c r="N60" t="s">
+        <v>50</v>
+      </c>
+      <c r="O60" t="s">
+        <v>51</v>
+      </c>
+      <c r="P60" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>53</v>
+      </c>
+      <c r="U60" t="s">
+        <v>54</v>
+      </c>
+      <c r="V60">
+        <v>119</v>
+      </c>
+      <c r="W60">
+        <v>83</v>
+      </c>
+      <c r="X60" s="1">
+        <v>84</v>
+      </c>
+      <c r="Y60" s="1">
+        <v>74</v>
+      </c>
+      <c r="Z60" s="1">
+        <f t="shared" si="0"/>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61">
+        <v>53.388571300000002</v>
+      </c>
+      <c r="D61">
+        <v>-6.3688254999999998</v>
+      </c>
+      <c r="E61">
+        <v>28</v>
+      </c>
+      <c r="F61">
+        <v>89</v>
+      </c>
+      <c r="G61">
+        <v>8</v>
+      </c>
+      <c r="H61">
+        <v>19</v>
+      </c>
+      <c r="I61" t="s">
+        <v>45</v>
+      </c>
+      <c r="J61" t="s">
+        <v>46</v>
+      </c>
+      <c r="K61" t="s">
+        <v>47</v>
+      </c>
+      <c r="L61" t="s">
+        <v>48</v>
+      </c>
+      <c r="M61" t="s">
+        <v>49</v>
+      </c>
+      <c r="N61" t="s">
+        <v>50</v>
+      </c>
+      <c r="O61" t="s">
+        <v>51</v>
+      </c>
+      <c r="P61" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>53</v>
+      </c>
+      <c r="U61" t="s">
+        <v>54</v>
+      </c>
+      <c r="V61">
+        <v>64</v>
+      </c>
+      <c r="W61">
+        <v>78</v>
+      </c>
+      <c r="X61" s="1">
+        <v>95</v>
+      </c>
+      <c r="Y61" s="1">
+        <v>76</v>
+      </c>
+      <c r="Z61" s="1">
+        <f t="shared" si="0"/>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62">
+        <v>53.339419399999997</v>
+      </c>
+      <c r="D62">
+        <v>-6.2946222000000001</v>
+      </c>
+      <c r="E62">
+        <v>45</v>
+      </c>
+      <c r="F62">
+        <v>49</v>
+      </c>
+      <c r="G62">
+        <v>4</v>
+      </c>
+      <c r="H62">
+        <v>28</v>
+      </c>
+      <c r="I62" t="s">
+        <v>45</v>
+      </c>
+      <c r="J62" t="s">
+        <v>46</v>
+      </c>
+      <c r="K62" t="s">
+        <v>47</v>
+      </c>
+      <c r="L62" t="s">
+        <v>48</v>
+      </c>
+      <c r="M62" t="s">
+        <v>49</v>
+      </c>
+      <c r="N62" t="s">
+        <v>50</v>
+      </c>
+      <c r="O62" t="s">
+        <v>51</v>
+      </c>
+      <c r="P62" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>53</v>
+      </c>
+      <c r="U62" t="s">
+        <v>54</v>
+      </c>
+      <c r="V62">
+        <v>72</v>
+      </c>
+      <c r="W62">
+        <v>67</v>
+      </c>
+      <c r="X62" s="1">
+        <v>114</v>
+      </c>
+      <c r="Y62" s="1">
+        <v>86</v>
+      </c>
+      <c r="Z62" s="1">
+        <f t="shared" si="0"/>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Z62" xr:uid="{6BB841AD-A325-4F66-8E94-19C2855A0A1E}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/clinics.xlsx
+++ b/data/clinics.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9ba4994e95445f0b/The Code Institute/My Visual Studio Projects/milestone-2-project/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dunca\OneDrive\The Code Institute\My Visual Studio Projects\milestone-2-project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="0473DD55B2028695656D04936637DB4402589DB1" xr6:coauthVersionLast="23" xr6:coauthVersionMax="23" xr10:uidLastSave="{7B4AAC18-211F-4C8F-8D5B-5F91D3A7D2A7}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="0473DD55B2028695656D04936637DB4402589DB1" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{E8C16C8A-C5E7-41E4-BDD3-AD0057E65C51}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="clinics" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">clinics!$A$1:$Z$62</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="141">
   <si>
     <t>id</t>
   </si>
@@ -407,13 +408,299 @@
   </si>
   <si>
     <t>staff/counsellors</t>
+  </si>
+  <si>
+    <r>
+      <t>function(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>) { return d.department0; },</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>function(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>) { return d.department1; },</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>function(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>) { return d.department2; },</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>function(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>) { return d.department3; },</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>function(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>) { return d.department4; },</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>function(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>) { return d.department5; },</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>function(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>) { return d.department6; },</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>function(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>) { return d.department7; },</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>function(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>) { return d.department8; },</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>function(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>) { return d.department9; },</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>function(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>) { return d.department10; },</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>function(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>) { return d.department11; },</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>function(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>) { return d.name; },</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -547,6 +834,17 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="33">
@@ -890,9 +1188,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1250,8 +1551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="T1" sqref="I1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5526,4 +5827,109 @@
   <autoFilter ref="A1:Z62" xr:uid="{6BB841AD-A325-4F66-8E94-19C2855A0A1E}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43C62C67-6F25-4746-B6DF-03CF74BC98DB}">
+  <dimension ref="A1:A20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
 </file>